--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H2">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.04217267961988889</v>
+        <v>0.00161773683</v>
       </c>
       <c r="R2">
-        <v>0.379554116579</v>
+        <v>0.01455963147</v>
       </c>
       <c r="S2">
-        <v>0.04243569510187492</v>
+        <v>0.006781143259661978</v>
       </c>
       <c r="T2">
-        <v>0.04243569510187493</v>
+        <v>0.006781143259661978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H3">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>0.1614271429843333</v>
+        <v>0.05385960313300001</v>
       </c>
       <c r="R3">
-        <v>1.452844286859</v>
+        <v>0.484736428197</v>
       </c>
       <c r="S3">
-        <v>0.1624339046651261</v>
+        <v>0.2257658217210843</v>
       </c>
       <c r="T3">
-        <v>0.1624339046651261</v>
+        <v>0.2257658217210843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H4">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.01668534063222222</v>
+        <v>0.004205682513000001</v>
       </c>
       <c r="R4">
-        <v>0.15016806569</v>
+        <v>0.037851142617</v>
       </c>
       <c r="S4">
-        <v>0.01678940096104267</v>
+        <v>0.01762915642175755</v>
       </c>
       <c r="T4">
-        <v>0.01678940096104268</v>
+        <v>0.01762915642175755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08656766666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.259703</v>
+      </c>
+      <c r="I5">
+        <v>0.7498238785974961</v>
+      </c>
+      <c r="J5">
+        <v>0.7498238785974962</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.3039766666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.91193</v>
-      </c>
-      <c r="I5">
-        <v>0.7783409992719563</v>
-      </c>
-      <c r="J5">
-        <v>0.7783409992719564</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.1480865901655556</v>
+        <v>0.00484865501</v>
       </c>
       <c r="R5">
-        <v>1.33277931149</v>
+        <v>0.04363789509</v>
       </c>
       <c r="S5">
-        <v>0.1490101517281387</v>
+        <v>0.02032433436005025</v>
       </c>
       <c r="T5">
-        <v>0.1490101517281387</v>
+        <v>0.02032433436005026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H6">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I6">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J6">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>0.5668407931433332</v>
+        <v>0.1614271429843333</v>
       </c>
       <c r="R6">
-        <v>5.101567138289999</v>
+        <v>1.452844286859</v>
       </c>
       <c r="S6">
-        <v>0.5703759705558595</v>
+        <v>0.6766617179474748</v>
       </c>
       <c r="T6">
-        <v>0.5703759705558598</v>
+        <v>0.6766617179474749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H7">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I7">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J7">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.0585894759888889</v>
+        <v>0.012605204511</v>
       </c>
       <c r="R7">
-        <v>0.5273052839</v>
+        <v>0.113446840599</v>
       </c>
       <c r="S7">
-        <v>0.05895487698795795</v>
+        <v>0.05283782628997102</v>
       </c>
       <c r="T7">
-        <v>0.05895487698795798</v>
+        <v>0.05283782628997103</v>
       </c>
     </row>
   </sheetData>
